--- a/uploads/templates/template_asisten.xlsx
+++ b/uploads/templates/template_asisten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maranathaedu-my.sharepoint.com/personal/if2072023_student_it_maranatha_edu/Documents/SEMESTER 5/Proyek Perangkat Lunak/TubesPPL/uploads/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARYA\OneDrive - MCU\SEMESTER 5\Proyek Perangkat Lunak\TubesPPL\uploads\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC104865E91B45CE5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F072096-D129-4D51-A4D6-7F05293CDCC5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E80DB64-F191-4356-B014-E4317480E0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1710" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="8685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Status 1/0</t>
   </si>
   <si>
-    <t>Arya</t>
-  </si>
-  <si>
     <t>NRP Mahasiswa</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>No Telepon Mahasiswa</t>
+  </si>
+  <si>
+    <t>John Doe</t>
   </si>
 </sst>
 </file>
@@ -110,10 +110,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,7 +378,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,13 +391,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -409,13 +405,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>72001</v>
+        <v>72000</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>851</v>
+        <v>8000000000</v>
       </c>
       <c r="D2">
         <v>0</v>
